--- a/data/spatial/Iowa_BLE_Tracking.xlsx
+++ b/data/spatial/Iowa_BLE_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Iowa_00_Tracking\Iowa_Tracking_Maps\iowa_ble_tracking\data\spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578EA4B4-96D6-46C4-A71B-E513D26FDCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826E1D3-228E-43EA-9CCB-EA0106AB2057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -495,12 +495,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,11 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
       <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
       <c r="R2">
@@ -997,7 +997,7 @@
       <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -1056,7 +1056,7 @@
       <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
       <c r="R4">
@@ -1115,7 +1115,7 @@
       <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5">
@@ -1171,7 +1171,7 @@
       <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>1</v>
       </c>
       <c r="R6">
@@ -1230,7 +1230,7 @@
       <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>1</v>
       </c>
       <c r="R7">
@@ -1240,7 +1240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1286,6 +1286,7 @@
       <c r="P8" t="s">
         <v>27</v>
       </c>
+      <c r="Q8" s="3"/>
       <c r="R8">
         <v>7</v>
       </c>
@@ -1339,14 +1340,14 @@
       <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1392,11 +1393,12 @@
       <c r="P10" t="s">
         <v>27</v>
       </c>
+      <c r="Q10" s="3"/>
       <c r="R10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1442,6 +1444,7 @@
       <c r="P11" t="s">
         <v>27</v>
       </c>
+      <c r="Q11" s="3"/>
       <c r="R11">
         <v>10</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1495,11 +1498,12 @@
       <c r="P12" t="s">
         <v>27</v>
       </c>
+      <c r="Q12" s="3"/>
       <c r="R12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1545,11 +1549,12 @@
       <c r="P13" t="s">
         <v>27</v>
       </c>
+      <c r="Q13" s="3"/>
       <c r="R13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1595,11 +1600,12 @@
       <c r="P14" t="s">
         <v>27</v>
       </c>
+      <c r="Q14" s="3"/>
       <c r="R14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1645,11 +1651,12 @@
       <c r="P15" t="s">
         <v>27</v>
       </c>
+      <c r="Q15" s="3"/>
       <c r="R15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1695,11 +1702,12 @@
       <c r="P16" t="s">
         <v>27</v>
       </c>
+      <c r="Q16" s="3"/>
       <c r="R16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1745,11 +1753,12 @@
       <c r="P17" t="s">
         <v>27</v>
       </c>
+      <c r="Q17" s="3"/>
       <c r="R17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1795,6 +1804,7 @@
       <c r="P18" t="s">
         <v>27</v>
       </c>
+      <c r="Q18" s="3"/>
       <c r="R18">
         <v>17</v>
       </c>
@@ -1848,7 +1858,7 @@
       <c r="P19" t="s">
         <v>27</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>1</v>
       </c>
       <c r="R19">
@@ -1904,7 +1914,7 @@
       <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>3</v>
       </c>
       <c r="R20">
@@ -1914,7 +1924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1960,11 +1970,12 @@
       <c r="P21" t="s">
         <v>27</v>
       </c>
+      <c r="Q21" s="3"/>
       <c r="R21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2010,11 +2021,12 @@
       <c r="P22" t="s">
         <v>27</v>
       </c>
+      <c r="Q22" s="3"/>
       <c r="R22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2060,11 +2072,12 @@
       <c r="P23" t="s">
         <v>27</v>
       </c>
+      <c r="Q23" s="3"/>
       <c r="R23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2110,6 +2123,7 @@
       <c r="P24" t="s">
         <v>27</v>
       </c>
+      <c r="Q24" s="3"/>
       <c r="R24">
         <v>23</v>
       </c>
@@ -2163,7 +2177,7 @@
       <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>1</v>
       </c>
       <c r="R25">
@@ -2219,14 +2233,14 @@
       <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2272,11 +2286,12 @@
       <c r="P27" t="s">
         <v>27</v>
       </c>
+      <c r="Q27" s="3"/>
       <c r="R27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2322,18 +2337,13 @@
       <c r="P28" t="s">
         <v>27</v>
       </c>
+      <c r="Q28" s="3"/>
       <c r="R28">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="FY20_1A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>